--- a/EXCEL_OUPUT/SAPL finnancial statements Mar-23 Signed.xlsx
+++ b/EXCEL_OUPUT/SAPL finnancial statements Mar-23 Signed.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="1148">
   <si>
     <t>KPMG</t>
   </si>
@@ -2370,97 +2370,133 @@
     <t>intermediate lessor, it counts for its intrests in the head lease and the sub-lease</t>
   </si>
   <si>
+    <t>7. Significant accounting policies (continued) () Leases (continued)</t>
+  </si>
+  <si>
     <t>Lease payments included in the measurement of the lease liability comprise the following:</t>
   </si>
   <si>
     <t>fixed payments, including in-substance fixed payments;</t>
   </si>
   <si>
-    <t>payments</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>under</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>penalties</t>
-  </si>
-  <si>
-    <t>liability</t>
-  </si>
-  <si>
-    <t>presents</t>
+    <t>variable lease payments that depend on an index or a rate, initially measured using the index or rate as at the commencement date;</t>
+  </si>
+  <si>
+    <t>amounts expected to be payable under a residual value guarantee; and</t>
+  </si>
+  <si>
+    <t>the exercise price under a purchase option</t>
+  </si>
+  <si>
+    <t>payments in an optional</t>
+  </si>
+  <si>
+    <t>the exercise price under a purchase option that the Group is reasonably certain to exercise, lease payments in an optional renewal period if the Group is reasonably certain to exercise an extension option, and penalties for early termination of a lease unless the Group is reasonably certain not to terminate early. The lease liability is measured at amortised cost using the effective interest method. It is remeasured when there is a change in future lease payments arising from a change in an index or rate, if there is a change in the Group's estimate of the amount expected to be payable under a residual value guarantee, if the Group changes its assessment of whether it will exercise a purchase, extension or termination option or if there is a revised in-substance fixed lease payment.</t>
+  </si>
+  <si>
+    <t>When the lease liability is remeasured in this way, a corresponding adjustment is made to the carrying amount of the right-of-use asset, or is recorded in profit or loss if the carrying amount of the right-of- use asset has been reduced to zero.</t>
+  </si>
+  <si>
+    <t>The Group presents right-of-use assets that do not meet the definition of investment property in 'property, plant and equipment' and lease liabilities in 'loans and borrowings' in the statement of financial position.</t>
   </si>
   <si>
     <t>Short-term leases and leases of low-value assets</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>contract,</t>
-  </si>
-  <si>
-    <t>consideration</t>
-  </si>
-  <si>
-    <t>However,</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>right-of-use</t>
-  </si>
-  <si>
-    <t>commencement</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>exercise</t>
-  </si>
-  <si>
-    <t>The</t>
-  </si>
-  <si>
-    <t>or,</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>determines</t>
-  </si>
-  <si>
-    <t>allocates</t>
-  </si>
-  <si>
-    <t>prices.</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>underlying</t>
-  </si>
-  <si>
-    <t>equipment.</t>
+    <t>The Group has elected not to recognise right-of-use assets and lease liabilities for leases of low-value assets and short-term leases, including printer, novated motor vehicles and Group houses. The Group recognises the lease payments associated with these leases as an expense on a straight-line basis over the lease term.</t>
+  </si>
+  <si>
+    <t>As a lessor</t>
+  </si>
+  <si>
+    <t>At inception or on modification of a contract that contains a lease component, the Group allocates the consideration in the contract to each lease component on the basis of their relative stand-along prices.</t>
+  </si>
+  <si>
+    <t>When the Group acts as a lessor, it determines at lease inception whether each lease is a finance</t>
+  </si>
+  <si>
+    <t>lease</t>
+  </si>
+  <si>
+    <t>renewal period if the</t>
+  </si>
+  <si>
+    <t>that the Group is reasonably certain to exercise, lease</t>
+  </si>
+  <si>
+    <t>Group is reasonably certain to exercise an extension</t>
+  </si>
+  <si>
+    <t>() Leases</t>
+  </si>
+  <si>
+    <t>At inception of a contract, the Group assesses whether a contract is, or contains, a lease. A contract is, or contains, a lease is the contract conveys the right to control the use of an identified asset for a period of time in exchange for consideration.</t>
+  </si>
+  <si>
+    <t>As a lessee</t>
+  </si>
+  <si>
+    <t>At commencement or on</t>
+  </si>
+  <si>
+    <t>allocates the consideration</t>
+  </si>
+  <si>
+    <t>alone prices. However, for the leases of property the Group has elected not to separate</t>
+  </si>
+  <si>
+    <t>non-lease At commencement or on modification of a contract that contains a lease component, the Group allocates the consideration in the contract to each lease component on the basis of its relative stand- alone prices. However, for the leases of property the Group has elected not to separate components and account for the lease and non-lease components as a single lease component. The Group recognises a right-of-use asset and a lease liability at the lease commencement date. The right-of-use asset is initially measured at cost, which comprises the initial amount of the lease liability adjusted for any lease payments made at or before the commencement date, plus any initial direct costs incurred and an estimate of costs to dismantle and remove the underlying asset or to restore the underlying asset or the site on which it is located, less any lease incentives received.</t>
+  </si>
+  <si>
+    <t>The right-of-use asset is</t>
+  </si>
+  <si>
+    <t>commencement date to</t>
+  </si>
+  <si>
+    <t>underlying asset to the Group by the end of the lease term or the cost of the right-of-use</t>
+  </si>
+  <si>
+    <t>that the Group will exercise a purchase option. In that case the right-of- use asset will be depreciated over the useful life of the underlying asset, which is determined on the same basis as those of property and equipment. In addition, the right-of- use asset is periodically reduced by impairment losses, if any, and adjusted for certain remeasurements of the lease liability.</t>
+  </si>
+  <si>
+    <t>The lease liability is initially measured at the present value of the lease payments that are not paid at</t>
+  </si>
+  <si>
+    <t>the commencement date, discounted using the interest rate implicit in the</t>
+  </si>
+  <si>
+    <t>lease or, if that rate cannot be readily determined, the Group's incremental borrowing rate. Generally,</t>
+  </si>
+  <si>
+    <t>the Group uses its incremental borrowing rate as the discount rate.</t>
+  </si>
+  <si>
+    <t>The Group determines its incremental borrowing rate by obtaining interest rates from various external financing sources and makes certain adjustments to reflect the terms of the lease and type of the asset leased.</t>
+  </si>
+  <si>
+    <t>modification of a contract that contains a lease component, the Group</t>
+  </si>
+  <si>
+    <t>in the contract to each lease component on the basis of its</t>
+  </si>
+  <si>
+    <t>subsequently depreciated using the straight-line method from</t>
+  </si>
+  <si>
+    <t>the end of the lease term, unless the lease transfers ownership</t>
+  </si>
+  <si>
+    <t>relative stand-</t>
+  </si>
+  <si>
+    <t>non-lease</t>
+  </si>
+  <si>
+    <t>of the</t>
+  </si>
+  <si>
+    <t>asset reflects</t>
   </si>
   <si>
     <t>(i)</t>
@@ -2670,505 +2706,568 @@
     <t>The Group designates only the change in fair value of the spot element of forward exchange contracts as the hedging instrument in cash flow hedging relationships. The change in fair value of the forward element of forward exchange contracts ('forward points') is separately accounted for as a cost of hedging and recognised in a costs of hedging reserve within equity.</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>contractual</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>instruments</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>(iv)</t>
-  </si>
-  <si>
-    <t>recognises</t>
+    <t>Financial assets at amortised cost</t>
+  </si>
+  <si>
+    <t>(ili) Subsequent measurement financial assets</t>
+  </si>
+  <si>
+    <t>Financial assets are measured at amortised cost if the assets meet the following conditions (and are not designated as FVTPL):</t>
+  </si>
+  <si>
+    <t>they are held within a business model whose objective is to hold the financial assets and collect its contractual cash flows.</t>
+  </si>
+  <si>
+    <t>the contractual terms of the financial assets give rise to cash flows that are solely payments of</t>
+  </si>
+  <si>
+    <t>the contractual terms of the financial assets give rise to cash flows that are solely payments of principal and interest on the principal amount outstanding. After initial recognition, these are measured at amortised cost using the effective interest method. Discounting is omitted where the effect of discounting is immaterial. The Group's cash and cash equivalents, trade and most other receivables fall into this category of financial instruments that were previously classified as held-to-maturity under AASB 139.</t>
+  </si>
+  <si>
+    <t>Financial assets at fair value through profit or loss (FVPL)</t>
+  </si>
+  <si>
+    <t>Financial assets that are held within a different business model other than 'hold to collect' or 'hold to collect and sell' are categorised at fair value through profit and loss. Further, irrespective of business model financial assets whose contractual cash flows are not solely payments of principal and interest are accounted for at FVPL. All derivative financial instruments fall into this category, except for those designated and effective as hedging instruments, for which the hedge accounting requirements apply.</t>
+  </si>
+  <si>
+    <t>Equity instruments at fair value through other comprehensive income</t>
+  </si>
+  <si>
+    <t>Investments in equity instruments that are not held for trading are eligible for an irrevocable election at inception to be measured at FVOCI. Under Equity FVOCI, subsequent movements in fair value are recognised in other comprehensive income and are never reclassified to profit or loss. Dividend from these investments continue to be recorded as other income within the profit or loss unless the dividend clearly represents return of capital. This category includes unlisted equity securities.</t>
+  </si>
+  <si>
+    <t>Debt instruments at fair value through other comprehensive income</t>
+  </si>
+  <si>
+    <t>Financial assets with contractual cash flows representing solely payments of principal and interest and</t>
+  </si>
+  <si>
+    <t>held within a business model of collecting the contractual cash flows and selling the assets are accounted for at debt FVOCI.</t>
+  </si>
+  <si>
+    <t>Any gains or losses recognised in OCI will be reclassified to profit or loss upon derecognition of the asset.</t>
+  </si>
+  <si>
+    <t>(iv) Classification and measurement of financial liabilities</t>
+  </si>
+  <si>
+    <t>The Group initially recognises debt securities issued and subordinated liabilities on the date that they are originated. All other financial liabilities (including liabilities designated at fair value through profit or loss) are recognised initially on the trade date, which is the date that the Group becomes a party to the contractual provisions of the instrument.</t>
+  </si>
+  <si>
+    <t>The Group derecognises a financial liability when its contractual obligations are discharged or</t>
+  </si>
+  <si>
+    <t>(e) Financial Instruments</t>
+  </si>
+  <si>
+    <t>In calculating interest income and expense, the effective interest rate is applied to the gross carrying amount of the asset (when the asset is not credit-impaired) or to the amortised cost of the liability.</t>
+  </si>
+  <si>
+    <t>However, for financial assets that have become credit-impaired subsequent to initial recognition,</t>
+  </si>
+  <si>
+    <t>interest income is calculated by applying the effective interest rate to the amortised cost of the</t>
+  </si>
+  <si>
+    <t>financial asset. If the asset is no longer credit-impaired, then the calculation of interest income reverts to the gross basis.</t>
+  </si>
+  <si>
+    <t>(i) Recognition, initial measurement and derecognition</t>
+  </si>
+  <si>
+    <t>Financial assets and financial liabilities are recognised when the Group becomes a party to the</t>
+  </si>
+  <si>
+    <t>contractual provisions of the financial instrument, and are measured initially at fair value adjusted by transactions costs, except for those carried at fair value through profit or loss, which are measured initially at fair value. Subsequent measurement of financial assets and financial liabilities are described below.</t>
+  </si>
+  <si>
+    <t>Financial assets are derecognised when the contractual rights to the cash flows from the financial asset expire, or when the financial asset and all substantial risks and rewards are transferred. A</t>
+  </si>
+  <si>
+    <t>financial liability is derecognised when it is extinguished, discharged, cancelled or expires.</t>
+  </si>
+  <si>
+    <t>(i) Classification and subsequent measurement of financial assets</t>
+  </si>
+  <si>
+    <t>Except for those trade receivables that do not contain a significant financing component and are measured at the transaction price in accordance with AASB 15, all financial assets are initially</t>
+  </si>
+  <si>
+    <t>measured at fair value adjusted for transaction costs (where applicable).</t>
+  </si>
+  <si>
+    <t>For the purpose of subsequent measurement, financial assets other than those designated and effective as hedging instruments are classified into the following categories upon initial recognition:</t>
+  </si>
+  <si>
+    <t>amortised cost;</t>
+  </si>
+  <si>
+    <t>fair value through profit or loss (FVTPL);</t>
+  </si>
+  <si>
+    <t>equtiy instruments at fair value through other comprensive income</t>
+  </si>
+  <si>
+    <t>debt instruments at fair value through other comprensive income</t>
+  </si>
+  <si>
+    <t>Classifications are determined by both:</t>
+  </si>
+  <si>
+    <t>The entities business model for managing the financial asset;and</t>
+  </si>
+  <si>
+    <t>(c) Revenue (continued)</t>
+  </si>
+  <si>
+    <t>The following provides information about the nature and timing of the satisfaction of performanace</t>
+  </si>
+  <si>
+    <t>obligations in contracts with customers, including significnat payment terms, and the related revenue recognition policies.</t>
+  </si>
+  <si>
+    <t>(i) Products</t>
+  </si>
+  <si>
+    <t>Revenue is recognised upon the satisfaction of performance obligations, which occurs when control of</t>
+  </si>
+  <si>
+    <t>the goods transferred to the customer. Control transfers at a point in time.Customers obtain control of</t>
+  </si>
+  <si>
+    <t>goods when the goods are delivered to and have been accepted at their premises. Invovice are</t>
+  </si>
+  <si>
+    <t>generated at that point in time. Invoices are usually payable within 30 to 210 days. No discounts are provided for the goods.</t>
+  </si>
+  <si>
+    <t>(i) Services</t>
+  </si>
+  <si>
+    <t>Revenue is recognised over time as the services are provided. The Group recognises revenue from rendering of services over time based on the cost to cost method.</t>
+  </si>
+  <si>
+    <t>Iff the services under a single arrangement are rendered in different reporting periods, then the</t>
+  </si>
+  <si>
+    <t>consideration is allocated based on their relative stand-alone selling prices. The stand-alone selling</t>
+  </si>
+  <si>
+    <t>price is determined based on the list prices at which the Group sells the services in separate</t>
+  </si>
+  <si>
+    <t>transactions.</t>
+  </si>
+  <si>
+    <t>Invoices for services are issued on a monthly or quarterly basis and are usually payable within 30 days.</t>
+  </si>
+  <si>
+    <t>(ili) Commissions</t>
+  </si>
+  <si>
+    <t>When the Group acts in the capacity of an agent rather than as the principal in a transaction, the revenue recognised is the net amount of commission made by the Group.</t>
+  </si>
+  <si>
+    <t>(d) Finance income and finance costs</t>
+  </si>
+  <si>
+    <t>The Group's finance income and finance costs includes:</t>
+  </si>
+  <si>
+    <t>interest income;</t>
+  </si>
+  <si>
+    <t>interest expense;</t>
+  </si>
+  <si>
+    <t>dividend income;</t>
+  </si>
+  <si>
+    <t>the net gain or loss on financial assets at FVTPL;</t>
+  </si>
+  <si>
+    <t>the net foreign currency gain or loss financial assets and financial liabilities;</t>
+  </si>
+  <si>
+    <t>hedge ineffectiveness recgnised in profit or loss.</t>
+  </si>
+  <si>
+    <t>(a) Basis of consolidation (continued)</t>
+  </si>
+  <si>
+    <t>(i) Investments in equtiy-accounted investees (Continued)</t>
+  </si>
+  <si>
+    <t>Associates are those entities in which the Group has significant influence, but not control, over the</t>
+  </si>
+  <si>
+    <t>financial and operating policies. Interest in associates are accounted for using equity method. They are recognised initially at cost, which includes transaction costs. subsequent to initial recognition, the consolidated financial statements include the Group's share of the profit or loss and OCI of equity- accounted investees, until the date on which significant influence.</t>
+  </si>
+  <si>
+    <t>(ii) Interest in joint operations</t>
+  </si>
+  <si>
+    <t>The Group has recognised its direct right to them and its share of jointly held assets, liabilities,</t>
+  </si>
+  <si>
+    <t>revenue and expenses of joint operations. These have been incorporated in the consolidated financial statements.</t>
+  </si>
+  <si>
+    <t>(ii) Subsidiaries</t>
+  </si>
+  <si>
+    <t>Subsidiaries are entities controlled by the Group. The Group 'controls' an entity when it is exposed to,</t>
+  </si>
+  <si>
+    <t>or has rights to, variable returns from its involvement with the entity and has the ability to affect those returns through its power over the entity. The financial statements of subsidiaries are included in the</t>
+  </si>
+  <si>
+    <t>consolidated financial statements from the date on which control commences until the date on which control ceases.</t>
+  </si>
+  <si>
+    <t>(iv) Transactions eliminated on consolidation</t>
+  </si>
+  <si>
+    <t>Intra-group balances and transactions, and any unrealised income and expenses arising from intra- group transactions, are eliminated. Unrealised gains arising from transactions with equity-accounted</t>
+  </si>
+  <si>
+    <t>investees are eliminated against the investment to the extent of the Group's interest in the investee. Unrealised losses are eliminated in the same way as unrealised gains, but only to the extent that there isno evidence of impairment.</t>
+  </si>
+  <si>
+    <t>(b) Foreign currency transactions</t>
+  </si>
+  <si>
+    <t>Transactions in foreign currencies are translated to the respective functional currencies of the Group at exchange rates at the dates of the transactions. Monetary assets and liabilities denominated in</t>
+  </si>
+  <si>
+    <t>foreign currencies at the reporting date are retranslated to the functional currency at the exchange</t>
+  </si>
+  <si>
+    <t>rate at that date. The foreign currency gain or loss on monetary items is the difference between</t>
+  </si>
+  <si>
+    <t>amortised cost in the functional currency at the beginning of the period, adjusted for effective interest</t>
+  </si>
+  <si>
+    <t>and payments during the period, and the amortised cost in foreign currency translated at the exchange</t>
+  </si>
+  <si>
+    <t>rate at the end of the year. Non-monetary assets and liabilities denominated in foreign currencies that are measured at fair value are retranslated to the functional currency at the exchange rate at the date</t>
+  </si>
+  <si>
+    <t>that the fair value was</t>
+  </si>
+  <si>
+    <t>terms of historical cost are translated using the exchange rate at the date of the transaction.</t>
+  </si>
+  <si>
+    <t>determined. Non-monetary items in a foreign currency that are measured in</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Derivative financial instrument at fair value through profit or loss</t>
+  </si>
+  <si>
+    <t>Non-derivative financial instruments at fair value through profit or loss</t>
+  </si>
+  <si>
+    <t>Measurement basis</t>
+  </si>
+  <si>
+    <t>Fair value</t>
+  </si>
+  <si>
+    <t>(a)</t>
+  </si>
+  <si>
+    <t>(b)</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Use of estimates and judgements (continued)</t>
+  </si>
+  <si>
+    <t>Judgments (continued)</t>
+  </si>
+  <si>
+    <t>Note 7 -</t>
+  </si>
+  <si>
+    <t>or at a point in time; commission revenue: whether the Group acts as an agent in the transaction</t>
+  </si>
+  <si>
+    <t>rather than as the principal.</t>
+  </si>
+  <si>
+    <t>Assumptions and estimation uncertainties</t>
+  </si>
+  <si>
+    <t>Information about assumption and estimation uncertainties that have a significant risk of resulting in a</t>
+  </si>
+  <si>
+    <t>material adjustment in the year ending 31 March 2023 is included in the following notes:</t>
+  </si>
+  <si>
+    <t>deductible temporary differences and tax losses carried forward can be used;</t>
+  </si>
+  <si>
+    <t>Basis of measurement</t>
+  </si>
+  <si>
+    <t>The consolidated financial statements have been prepared on the historical cost basis except for the</t>
+  </si>
+  <si>
+    <t>following material items, which are measured on an alternative basis on each reporting date.</t>
+  </si>
+  <si>
+    <t>7 revenue - recognition: whether revenue from made-to order products is recognised over time</t>
+  </si>
+  <si>
+    <t>7 - revenue recognition: estimate of expected returns</t>
+  </si>
+  <si>
+    <t>12 - recognition of deferred tax assets: availability of future taxable profit against which</t>
+  </si>
+  <si>
+    <t>1. Reporting entity</t>
+  </si>
+  <si>
+    <t>These consolidated financial statements comprise Sumitomo Australia Pty Ltd ('the Group") and its subsidiaries (together referred to as the 'Group') are as at and for the year ended 31 March 2023.</t>
+  </si>
+  <si>
+    <t>The Group is a for-profit entity.</t>
+  </si>
+  <si>
+    <t>2. Basis of accounting</t>
+  </si>
+  <si>
+    <t>These consolidated financial statements are general purpose financial statements for distribution to the members and for the purpose of fulfilling the requirements of the Corporations Act 2001. They have been prepared in accordance with Australian Accounting Standards Simplified Disclosures made by the Australian Accounting Standards Board and the Corporations Act 2001.</t>
+  </si>
+  <si>
+    <t>These consolidated financial statements are the first general</t>
+  </si>
+  <si>
+    <t>accordance with Australian Accounting Standards Simplified</t>
+  </si>
+  <si>
+    <t>consolidated financial statements were general purpose financial statements prepared in accordance with Australian Accounting Standards Reduced Disclosure Requirements. There was no impact on the recognition and measurement of amounts recognised in the statements of financial position, profit and loss and other comprehensive income and cash flows of the Group as a result of the change in the basis of preparation.</t>
+  </si>
+  <si>
+    <t>They were authorised for issue by the Board of Directors on accounting policies are included in Note 7.</t>
+  </si>
+  <si>
+    <t>3. Functional and presentation currency</t>
+  </si>
+  <si>
+    <t>These consolidated financial statements are presented in Australian dollars, which is the Group's functional currency, unless otherwise indicated.</t>
+  </si>
+  <si>
+    <t>The Group is of the kind referred to in Australian Securities and Investments Commission ('ASIC') Corporations (Rounding in Financial/Directors' Reports) Instrument 2016/191 issued by ASIC, relating to the 'rounding off of amounts in the financial statements. Amounts in the financial statements have been rounded off in accordance with this instrument to the nearest thousand dollars, or unless otherwise stated.</t>
+  </si>
+  <si>
+    <t>4. Use of estimates and judgements</t>
+  </si>
+  <si>
+    <t>preparation The statements requires of consolidated financial</t>
+  </si>
+  <si>
+    <t>preparation statements requires management to judgements, estimates and assumptions that affect the application of accounting policies and the reported amounts of assets, liabilities, income and expenses. Actual results may differ from these estimates. Estimates and underlying assumptions are reviewed on an ongoing basis. Revisions to accounting estimates are recognised in the period in which the estimate is revised and in any future periods affected.</t>
+  </si>
+  <si>
+    <t>(a) Judgments</t>
+  </si>
+  <si>
+    <t>purpose financial statements prepared in</t>
+  </si>
+  <si>
+    <t>Disclosures. In the prior year the</t>
+  </si>
+  <si>
+    <t>5th July 2023. Details of the Group's</t>
+  </si>
+  <si>
+    <t>make management to judgements,</t>
+  </si>
+  <si>
+    <t>Cash Flows From Operating Activities</t>
+  </si>
+  <si>
+    <t>Receipts from customers</t>
+  </si>
+  <si>
+    <t>Payments to suppliers and employees</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Income tax refunded/(paid)</t>
+  </si>
+  <si>
+    <t>Net cash from operating activities</t>
+  </si>
+  <si>
+    <t>Cash Flows From Investing Activities</t>
+  </si>
+  <si>
+    <t>Payments for property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Payment for intangibles</t>
+  </si>
+  <si>
+    <t>Net cash from investing activities</t>
+  </si>
+  <si>
+    <t>Cash Flows From Financing Activities</t>
+  </si>
+  <si>
+    <t>Repayment of loan by related parties</t>
+  </si>
+  <si>
+    <t>Repayment of loan to related party</t>
+  </si>
+  <si>
+    <t>Proceeds from loan with related parties</t>
+  </si>
+  <si>
+    <t>Payment of lease liabilities</t>
+  </si>
+  <si>
+    <t>Dividends paid</t>
+  </si>
+  <si>
+    <t>Net cash from/(used in) financing activities</t>
+  </si>
+  <si>
+    <t>Net increase//decrease) in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the beginning of the financial year</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the end of the financial year</t>
+  </si>
+  <si>
+    <t>169622</t>
+  </si>
+  <si>
+    <t>(150,942)</t>
+  </si>
+  <si>
+    <t>(7,873)</t>
+  </si>
+  <si>
+    <t>12686</t>
+  </si>
+  <si>
+    <t>39374</t>
+  </si>
+  <si>
+    <t>62867</t>
+  </si>
+  <si>
+    <t>(244)</t>
+  </si>
+  <si>
+    <t>6425</t>
+  </si>
+  <si>
+    <t>(84,502)</t>
+  </si>
+  <si>
+    <t>202530</t>
+  </si>
+  <si>
+    <t>(1,954)</t>
+  </si>
+  <si>
+    <t>116073</t>
+  </si>
+  <si>
+    <t>185366</t>
+  </si>
+  <si>
+    <t>182202</t>
+  </si>
+  <si>
+    <t>(199,690)</t>
+  </si>
+  <si>
+    <t>(194)</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>8881</t>
+  </si>
+  <si>
+    <t>(7,357)</t>
+  </si>
+  <si>
+    <t>(92)</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>6669</t>
+  </si>
+  <si>
+    <t>188188</t>
+  </si>
+  <si>
+    <t>(1,755)</t>
+  </si>
+  <si>
+    <t>193102</t>
+  </si>
+  <si>
+    <t>186283</t>
+  </si>
+  <si>
+    <t>31931</t>
+  </si>
+  <si>
+    <t>a a</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>(e) Financial Instruments</t>
-  </si>
-  <si>
-    <t>In calculating interest income and expense, the effective interest rate is applied to the gross carrying amount of the asset (when the asset is not credit-impaired) or to the amortised cost of the liability.</t>
-  </si>
-  <si>
-    <t>However, for financial assets that have become credit-impaired subsequent to initial recognition,</t>
-  </si>
-  <si>
-    <t>interest income is calculated by applying the effective interest rate to the amortised cost of the</t>
-  </si>
-  <si>
-    <t>financial asset. If the asset is no longer credit-impaired, then the calculation of interest income reverts to the gross basis.</t>
-  </si>
-  <si>
-    <t>(i) Recognition, initial measurement and derecognition</t>
-  </si>
-  <si>
-    <t>Financial assets and financial liabilities are recognised when the Group becomes a party to the</t>
-  </si>
-  <si>
-    <t>contractual provisions of the financial instrument, and are measured initially at fair value adjusted by transactions costs, except for those carried at fair value through profit or loss, which are measured initially at fair value. Subsequent measurement of financial assets and financial liabilities are described below.</t>
-  </si>
-  <si>
-    <t>Financial assets are derecognised when the contractual rights to the cash flows from the financial asset expire, or when the financial asset and all substantial risks and rewards are transferred. A</t>
-  </si>
-  <si>
-    <t>financial liability is derecognised when it is extinguished, discharged, cancelled or expires.</t>
-  </si>
-  <si>
-    <t>(i) Classification and subsequent measurement of financial assets</t>
-  </si>
-  <si>
-    <t>Except for those trade receivables that do not contain a significant financing component and are measured at the transaction price in accordance with AASB 15, all financial assets are initially</t>
-  </si>
-  <si>
-    <t>measured at fair value adjusted for transaction costs (where applicable).</t>
-  </si>
-  <si>
-    <t>For the purpose of subsequent measurement, financial assets other than those designated and effective as hedging instruments are classified into the following categories upon initial recognition:</t>
-  </si>
-  <si>
-    <t>amortised cost;</t>
-  </si>
-  <si>
-    <t>fair value through profit or loss (FVTPL);</t>
-  </si>
-  <si>
-    <t>equtiy instruments at fair value through other comprensive income</t>
-  </si>
-  <si>
-    <t>debt instruments at fair value through other comprensive income</t>
-  </si>
-  <si>
-    <t>Classifications are determined by both:</t>
-  </si>
-  <si>
-    <t>The entities business model for managing the financial asset;and</t>
-  </si>
-  <si>
-    <t>(c) Revenue (continued)</t>
-  </si>
-  <si>
-    <t>The following provides information about the nature and timing of the satisfaction of performanace</t>
-  </si>
-  <si>
-    <t>obligations in contracts with customers, including significnat payment terms, and the related revenue recognition policies.</t>
-  </si>
-  <si>
-    <t>(i) Products</t>
-  </si>
-  <si>
-    <t>Revenue is recognised upon the satisfaction of performance obligations, which occurs when control of</t>
-  </si>
-  <si>
-    <t>the goods transferred to the customer. Control transfers at a point in time.Customers obtain control of</t>
-  </si>
-  <si>
-    <t>goods when the goods are delivered to and have been accepted at their premises. Invovice are</t>
-  </si>
-  <si>
-    <t>generated at that point in time. Invoices are usually payable within 30 to 210 days. No discounts are provided for the goods.</t>
-  </si>
-  <si>
-    <t>(i) Services</t>
-  </si>
-  <si>
-    <t>Revenue is recognised over time as the services are provided. The Group recognises revenue from rendering of services over time based on the cost to cost method.</t>
-  </si>
-  <si>
-    <t>Iff the services under a single arrangement are rendered in different reporting periods, then the</t>
-  </si>
-  <si>
-    <t>consideration is allocated based on their relative stand-alone selling prices. The stand-alone selling</t>
-  </si>
-  <si>
-    <t>price is determined based on the list prices at which the Group sells the services in separate</t>
-  </si>
-  <si>
-    <t>transactions.</t>
-  </si>
-  <si>
-    <t>Invoices for services are issued on a monthly or quarterly basis and are usually payable within 30 days.</t>
-  </si>
-  <si>
-    <t>(ili) Commissions</t>
-  </si>
-  <si>
-    <t>When the Group acts in the capacity of an agent rather than as the principal in a transaction, the revenue recognised is the net amount of commission made by the Group.</t>
-  </si>
-  <si>
-    <t>(d) Finance income and finance costs</t>
-  </si>
-  <si>
-    <t>The Group's finance income and finance costs includes:</t>
-  </si>
-  <si>
-    <t>interest income;</t>
-  </si>
-  <si>
-    <t>interest expense;</t>
-  </si>
-  <si>
-    <t>dividend income;</t>
-  </si>
-  <si>
-    <t>the net gain or loss on financial assets at FVTPL;</t>
-  </si>
-  <si>
-    <t>the net foreign currency gain or loss financial assets and financial liabilities;</t>
-  </si>
-  <si>
-    <t>hedge ineffectiveness recgnised in profit or loss.</t>
-  </si>
-  <si>
-    <t>(a) Basis of consolidation (continued)</t>
-  </si>
-  <si>
-    <t>(i) Investments in equtiy-accounted investees (Continued)</t>
-  </si>
-  <si>
-    <t>Associates are those entities in which the Group has significant influence, but not control, over the</t>
-  </si>
-  <si>
-    <t>financial and operating policies. Interest in associates are accounted for using equity method. They are recognised initially at cost, which includes transaction costs. subsequent to initial recognition, the consolidated financial statements include the Group's share of the profit or loss and OCI of equity- accounted investees, until the date on which significant influence.</t>
-  </si>
-  <si>
-    <t>(ii) Interest in joint operations</t>
-  </si>
-  <si>
-    <t>The Group has recognised its direct right to them and its share of jointly held assets, liabilities,</t>
-  </si>
-  <si>
-    <t>revenue and expenses of joint operations. These have been incorporated in the consolidated financial statements.</t>
-  </si>
-  <si>
-    <t>(ii) Subsidiaries</t>
-  </si>
-  <si>
-    <t>Subsidiaries are entities controlled by the Group. The Group 'controls' an entity when it is exposed to,</t>
-  </si>
-  <si>
-    <t>or has rights to, variable returns from its involvement with the entity and has the ability to affect those returns through its power over the entity. The financial statements of subsidiaries are included in the</t>
-  </si>
-  <si>
-    <t>consolidated financial statements from the date on which control commences until the date on which control ceases.</t>
-  </si>
-  <si>
-    <t>(iv) Transactions eliminated on consolidation</t>
-  </si>
-  <si>
-    <t>Intra-group balances and transactions, and any unrealised income and expenses arising from intra- group transactions, are eliminated. Unrealised gains arising from transactions with equity-accounted</t>
-  </si>
-  <si>
-    <t>investees are eliminated against the investment to the extent of the Group's interest in the investee. Unrealised losses are eliminated in the same way as unrealised gains, but only to the extent that there isno evidence of impairment.</t>
-  </si>
-  <si>
-    <t>(b) Foreign currency transactions</t>
-  </si>
-  <si>
-    <t>Transactions in foreign currencies are translated to the respective functional currencies of the Group at exchange rates at the dates of the transactions. Monetary assets and liabilities denominated in</t>
-  </si>
-  <si>
-    <t>foreign currencies at the reporting date are retranslated to the functional currency at the exchange</t>
-  </si>
-  <si>
-    <t>rate at that date. The foreign currency gain or loss on monetary items is the difference between</t>
-  </si>
-  <si>
-    <t>amortised cost in the functional currency at the beginning of the period, adjusted for effective interest</t>
-  </si>
-  <si>
-    <t>and payments during the period, and the amortised cost in foreign currency translated at the exchange</t>
-  </si>
-  <si>
-    <t>rate at the end of the year. Non-monetary assets and liabilities denominated in foreign currencies that are measured at fair value are retranslated to the functional currency at the exchange rate at the date</t>
-  </si>
-  <si>
-    <t>that the fair value was</t>
-  </si>
-  <si>
-    <t>terms of historical cost are translated using the exchange rate at the date of the transaction.</t>
-  </si>
-  <si>
-    <t>determined. Non-monetary items in a foreign currency that are measured in</t>
-  </si>
-  <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>Derivative financial instrument at fair value through profit or loss</t>
-  </si>
-  <si>
-    <t>Non-derivative financial instruments at fair value through profit or loss</t>
-  </si>
-  <si>
-    <t>Measurement basis</t>
-  </si>
-  <si>
-    <t>Fair value</t>
-  </si>
-  <si>
-    <t>(a)</t>
-  </si>
-  <si>
-    <t>(b)</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Use of estimates and judgements (continued)</t>
-  </si>
-  <si>
-    <t>Judgments (continued)</t>
-  </si>
-  <si>
-    <t>Note 7 -</t>
-  </si>
-  <si>
-    <t>or at a point in time; commission revenue: whether the Group acts as an agent in the transaction</t>
-  </si>
-  <si>
-    <t>rather than as the principal.</t>
-  </si>
-  <si>
-    <t>Assumptions and estimation uncertainties</t>
-  </si>
-  <si>
-    <t>Information about assumption and estimation uncertainties that have a significant risk of resulting in a</t>
-  </si>
-  <si>
-    <t>material adjustment in the year ending 31 March 2023 is included in the following notes:</t>
-  </si>
-  <si>
-    <t>deductible temporary differences and tax losses carried forward can be used;</t>
-  </si>
-  <si>
-    <t>Basis of measurement</t>
-  </si>
-  <si>
-    <t>The consolidated financial statements have been prepared on the historical cost basis except for the</t>
-  </si>
-  <si>
-    <t>following material items, which are measured on an alternative basis on each reporting date.</t>
-  </si>
-  <si>
-    <t>7 revenue - recognition: whether revenue from made-to order products is recognised over time</t>
-  </si>
-  <si>
-    <t>7 - revenue recognition: estimate of expected returns</t>
-  </si>
-  <si>
-    <t>12 - recognition of deferred tax assets: availability of future taxable profit against which</t>
-  </si>
-  <si>
-    <t>These consolidated financial statements comprise Sumitomo Australia Pty Ltd ('the Group") and its subsidiaries (together referred to as the 'Group') are as at and for the year ended 31 March 2023.</t>
-  </si>
-  <si>
-    <t>These consolidated financial statements are general purpose financial statements for distribution to the members and for the purpose of fulfilling the requirements of the Corporations Act 2001. They have been prepared in accordance with Australian Accounting Standards Simplified Disclosures made by the Australian Accounting Standards Board and the Corporations Act 2001.</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>They were authorised for issue by the Board of Directors on accounting policies are included in Note 7.</t>
-  </si>
-  <si>
-    <t>These consolidated financial statements are presented in Australian dollars, which is the Group's functional currency, unless otherwise indicated.</t>
-  </si>
-  <si>
-    <t>Securities</t>
-  </si>
-  <si>
-    <t>requires</t>
-  </si>
-  <si>
-    <t>expenses.</t>
-  </si>
-  <si>
-    <t>Cash Flows From Operating Activities</t>
-  </si>
-  <si>
-    <t>Receipts from customers</t>
-  </si>
-  <si>
-    <t>Payments to suppliers and employees</t>
-  </si>
-  <si>
-    <t>Interest paid</t>
-  </si>
-  <si>
-    <t>Interest received</t>
-  </si>
-  <si>
-    <t>Income tax refunded/(paid)</t>
-  </si>
-  <si>
-    <t>Net cash from operating activities</t>
-  </si>
-  <si>
-    <t>Cash Flows From Investing Activities</t>
-  </si>
-  <si>
-    <t>Payments for property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Payment for intangibles</t>
-  </si>
-  <si>
-    <t>Net cash from investing activities</t>
-  </si>
-  <si>
-    <t>Cash Flows From Financing Activities</t>
-  </si>
-  <si>
-    <t>Repayment of loan by related parties</t>
-  </si>
-  <si>
-    <t>Repayment of loan to related party</t>
-  </si>
-  <si>
-    <t>Proceeds from loan with related parties</t>
-  </si>
-  <si>
-    <t>Payment of lease liabilities</t>
-  </si>
-  <si>
-    <t>Dividends paid</t>
-  </si>
-  <si>
-    <t>Net cash from/(used in) financing activities</t>
-  </si>
-  <si>
-    <t>Net increase//decrease) in cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at the beginning of the financial year</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at the end of the financial year</t>
-  </si>
-  <si>
-    <t>169622</t>
-  </si>
-  <si>
-    <t>(150,942)</t>
-  </si>
-  <si>
-    <t>(7,873)</t>
-  </si>
-  <si>
-    <t>12686</t>
-  </si>
-  <si>
-    <t>39374</t>
-  </si>
-  <si>
-    <t>62867</t>
-  </si>
-  <si>
-    <t>(244)</t>
-  </si>
-  <si>
-    <t>6425</t>
-  </si>
-  <si>
-    <t>(84,502)</t>
-  </si>
-  <si>
-    <t>202530</t>
-  </si>
-  <si>
-    <t>(1,954)</t>
-  </si>
-  <si>
-    <t>116073</t>
-  </si>
-  <si>
-    <t>185366</t>
-  </si>
-  <si>
-    <t>182202</t>
-  </si>
-  <si>
-    <t>(199,690)</t>
-  </si>
-  <si>
-    <t>(194)</t>
-  </si>
-  <si>
-    <t>1445</t>
-  </si>
-  <si>
-    <t>8881</t>
-  </si>
-  <si>
-    <t>(7,357)</t>
-  </si>
-  <si>
-    <t>(92)</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>538</t>
-  </si>
-  <si>
-    <t>6669</t>
-  </si>
-  <si>
-    <t>188188</t>
-  </si>
-  <si>
-    <t>(1,755)</t>
-  </si>
-  <si>
-    <t>193102</t>
-  </si>
-  <si>
-    <t>186283</t>
-  </si>
-  <si>
-    <t>31931</t>
-  </si>
-  <si>
-    <t>f</t>
+    <t>€</t>
+  </si>
+  <si>
+    <t>à</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>à</t>
-  </si>
-  <si>
-    <t>€</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>LO</t>
-  </si>
-  <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>Continuing operations</t>
@@ -8931,249 +9030,355 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>765</v>
+      </c>
+      <c r="B2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>765</v>
+      </c>
+      <c r="B3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B4" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>766</v>
+      </c>
+      <c r="C4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>767</v>
+      </c>
+      <c r="C5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B6" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>768</v>
+      </c>
+      <c r="C6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B7" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>768</v>
+      </c>
+      <c r="C7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B8" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>769</v>
+      </c>
+      <c r="C8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B9" t="s">
+        <v>770</v>
+      </c>
+      <c r="C9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>771</v>
+      </c>
+      <c r="B10" t="s">
+        <v>781</v>
+      </c>
+      <c r="C10" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>772</v>
+      </c>
+      <c r="B11" t="s">
+        <v>772</v>
+      </c>
+      <c r="C11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>772</v>
+      </c>
+      <c r="B12" t="s">
+        <v>772</v>
+      </c>
+      <c r="C12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>772</v>
+      </c>
+      <c r="B13" t="s">
+        <v>772</v>
+      </c>
+      <c r="C13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>772</v>
+      </c>
+      <c r="B14" t="s">
+        <v>772</v>
+      </c>
+      <c r="C14" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>772</v>
+      </c>
+      <c r="B15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C15" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>772</v>
+      </c>
+      <c r="B16" t="s">
+        <v>772</v>
+      </c>
+      <c r="C16" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>772</v>
+      </c>
+      <c r="B17" t="s">
+        <v>772</v>
+      </c>
+      <c r="C17" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>773</v>
+      </c>
+      <c r="B18" t="s">
+        <v>773</v>
+      </c>
+      <c r="C18" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>773</v>
+      </c>
+      <c r="B19" t="s">
+        <v>773</v>
+      </c>
+      <c r="C19" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>773</v>
+      </c>
+      <c r="B20" t="s">
+        <v>773</v>
+      </c>
+      <c r="C20" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>774</v>
+      </c>
+      <c r="B21" t="s">
+        <v>774</v>
+      </c>
+      <c r="C21" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>774</v>
+      </c>
+      <c r="B22" t="s">
+        <v>774</v>
+      </c>
+      <c r="C22" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>774</v>
+      </c>
+      <c r="B23" t="s">
+        <v>774</v>
+      </c>
+      <c r="C23" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>775</v>
+      </c>
+      <c r="B24" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>776</v>
+      </c>
+      <c r="B25" t="s">
+        <v>776</v>
+      </c>
+      <c r="C25" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>776</v>
+      </c>
+      <c r="B26" t="s">
+        <v>776</v>
+      </c>
+      <c r="C26" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>776</v>
+      </c>
+      <c r="B27" t="s">
+        <v>776</v>
+      </c>
+      <c r="C27" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>776</v>
+      </c>
+      <c r="B28" t="s">
+        <v>776</v>
+      </c>
+      <c r="C28" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>770</v>
-      </c>
-      <c r="B10" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>771</v>
-      </c>
-      <c r="B11" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>771</v>
-      </c>
-      <c r="B12" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>771</v>
-      </c>
-      <c r="B13" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>771</v>
-      </c>
-      <c r="B14" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>771</v>
-      </c>
-      <c r="B15" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>771</v>
-      </c>
-      <c r="B16" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>771</v>
-      </c>
-      <c r="B17" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>772</v>
-      </c>
-      <c r="B18" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>772</v>
-      </c>
-      <c r="B19" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>772</v>
-      </c>
-      <c r="B20" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>773</v>
-      </c>
-      <c r="B21" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>773</v>
-      </c>
-      <c r="B22" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>773</v>
-      </c>
-      <c r="B23" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>775</v>
-      </c>
-      <c r="B25" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>775</v>
-      </c>
-      <c r="B26" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>775</v>
-      </c>
-      <c r="B27" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>775</v>
-      </c>
-      <c r="B28" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>776</v>
-      </c>
       <c r="B30" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>778</v>
+      </c>
+      <c r="C30" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B31" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>778</v>
+      </c>
+      <c r="C31" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B32" t="s">
-        <v>777</v>
+        <v>779</v>
+      </c>
+      <c r="C32" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>780</v>
+      </c>
+      <c r="B33" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -9183,216 +9388,319 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>748</v>
+      </c>
+      <c r="B2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B4" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>785</v>
+      </c>
+      <c r="C4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B5" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>785</v>
+      </c>
+      <c r="C5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B6" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>785</v>
+      </c>
+      <c r="C6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="B8" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>800</v>
+      </c>
+      <c r="C8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="B9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C9" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>789</v>
+      </c>
+      <c r="B10" t="s">
+        <v>789</v>
+      </c>
+      <c r="C10" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>790</v>
+      </c>
+      <c r="B11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>790</v>
+      </c>
+      <c r="B12" t="s">
+        <v>790</v>
+      </c>
+      <c r="C12" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>790</v>
+      </c>
+      <c r="B13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C13" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>790</v>
+      </c>
+      <c r="B14" t="s">
+        <v>790</v>
+      </c>
+      <c r="C14" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>790</v>
+      </c>
+      <c r="B15" t="s">
+        <v>790</v>
+      </c>
+      <c r="C15" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>790</v>
+      </c>
+      <c r="B16" t="s">
+        <v>790</v>
+      </c>
+      <c r="C16" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>781</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B17" t="s">
+        <v>802</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>782</v>
-      </c>
-      <c r="B11" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>782</v>
-      </c>
-      <c r="B12" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>782</v>
-      </c>
-      <c r="B13" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>782</v>
-      </c>
-      <c r="B14" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>782</v>
-      </c>
-      <c r="B15" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>782</v>
-      </c>
-      <c r="B16" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>783</v>
-      </c>
-      <c r="B17" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>784</v>
-      </c>
       <c r="B18" t="s">
+        <v>803</v>
+      </c>
+      <c r="C18" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>785</v>
-      </c>
       <c r="B19" t="s">
+        <v>793</v>
+      </c>
+      <c r="C19" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" t="s">
+        <v>794</v>
+      </c>
+      <c r="C20" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>794</v>
+      </c>
+      <c r="B21" t="s">
+        <v>794</v>
+      </c>
+      <c r="C21" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="B22" t="s">
+        <v>794</v>
+      </c>
+      <c r="C22" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>794</v>
+      </c>
+      <c r="B23" t="s">
+        <v>794</v>
+      </c>
+      <c r="C23" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>787</v>
-      </c>
       <c r="B24" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>795</v>
+      </c>
+      <c r="C24" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>796</v>
+      </c>
+      <c r="B25" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="B26" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>797</v>
+      </c>
+      <c r="C26" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>798</v>
+      </c>
+      <c r="B27" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="B28" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>799</v>
+      </c>
+      <c r="C28" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="B29" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>799</v>
+      </c>
+      <c r="C29" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="B30" t="s">
-        <v>790</v>
+        <v>799</v>
+      </c>
+      <c r="C30" t="s">
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -9420,12 +9728,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -9453,147 +9761,147 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -9621,157 +9929,157 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -9799,12 +10107,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -9848,323 +10156,323 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="B3" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="C3" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="D3" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="E3" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="F3" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="G3" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="H3" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="B4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="C4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="D4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="E4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="F4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="G4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="H4" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="B5" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="B6" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="C6" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D6" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="B7" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="C7" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="D7" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="E7" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="F7" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="G7" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="H7" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="B8" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="C8" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="D8" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="E8" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="F8" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="G8" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="H8" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="B9" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="C9" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="D9" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="E9" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="F9" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="G9" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="H9" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="B10" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="C10" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="D10" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="E10" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="F10" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="G10" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="H10" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="B11" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="C11" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="D11" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="E11" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="B12" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="C12" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="D12" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="E12" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="F12" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="G12" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="H12" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="B13" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="C13" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="D13" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="E13" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="F13" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="G13" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="H13" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="B14" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="C14" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="D14" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="E14" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="F14" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="G14" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="H14" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="B15" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="C15" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="D15" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="E15" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="F15" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="G15" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="H15" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="B16" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="C16" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="D16" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="E16" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -10187,152 +10495,152 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -10697,175 +11005,316 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>748</v>
+      </c>
+      <c r="B2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>878</v>
+      </c>
+      <c r="B5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>879</v>
+      </c>
+      <c r="B6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>879</v>
+      </c>
+      <c r="B7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>880</v>
+      </c>
+      <c r="B8" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>880</v>
+      </c>
+      <c r="B9" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>881</v>
+      </c>
+      <c r="B10" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>882</v>
+      </c>
+      <c r="B11" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>882</v>
+      </c>
+      <c r="B12" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>882</v>
+      </c>
+      <c r="B13" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>882</v>
+      </c>
+      <c r="B14" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>882</v>
+      </c>
+      <c r="B15" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>883</v>
+      </c>
+      <c r="B16" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>884</v>
+      </c>
+      <c r="B17" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>884</v>
+      </c>
+      <c r="B18" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>884</v>
+      </c>
+      <c r="B19" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>884</v>
+      </c>
+      <c r="B20" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>884</v>
+      </c>
+      <c r="B21" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>885</v>
+      </c>
+      <c r="B22" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>886</v>
+      </c>
+      <c r="B23" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>886</v>
+      </c>
+      <c r="B24" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>886</v>
+      </c>
+      <c r="B25" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>886</v>
+      </c>
+      <c r="B26" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>886</v>
+      </c>
+      <c r="B27" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>887</v>
+      </c>
+      <c r="B28" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>888</v>
+      </c>
+      <c r="B29" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>889</v>
+      </c>
+      <c r="B30" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>889</v>
+      </c>
+      <c r="B31" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>890</v>
+      </c>
+      <c r="B32" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>874</v>
+        <v>890</v>
+      </c>
+      <c r="B33" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>891</v>
+      </c>
+      <c r="B34" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>892</v>
+      </c>
+      <c r="B35" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>892</v>
+      </c>
+      <c r="B36" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>892</v>
+      </c>
+      <c r="B37" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>892</v>
+      </c>
+      <c r="B38" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>893</v>
+      </c>
+      <c r="B39" t="s">
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -10899,220 +11348,220 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="B4" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="B5" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="B6" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="B7" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="B8" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="B9" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="B10" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="B11" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="B12" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="B13" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="B14" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="B15" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="B16" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="B17" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="B18" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="B19" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="B20" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="B21" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="B22" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="B23" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="B24" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="B26" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="B27" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="B28" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
       <c r="B29" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="B30" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -11140,152 +11589,152 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>908</v>
+        <v>927</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>910</v>
+        <v>929</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -11319,268 +11768,268 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="B3" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="B4" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="B5" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="B6" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="B7" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="B8" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="B9" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="B11" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="B12" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="B13" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>927</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="B15" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="B16" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="B17" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="B18" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="B19" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
       <c r="B20" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="B21" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="B22" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="B23" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="B24" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="B25" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
       <c r="B26" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="B27" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="B28" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="B29" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="B30" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="B31" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="B32" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="B33" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="B34" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="B35" t="s">
-        <v>943</v>
+        <v>962</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="B36" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -11606,26 +12055,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="B2" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="B3" t="s">
-        <v>948</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="B5" t="s">
-        <v>948</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -11663,117 +12112,117 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="C2" t="s">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="D2" t="s">
-        <v>952</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>949</v>
+        <v>968</v>
       </c>
       <c r="B3" t="s">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="C3" t="s">
-        <v>953</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>954</v>
+        <v>973</v>
       </c>
       <c r="C4" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="D4" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="E4" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="F4" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="C5" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="D5" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="E5" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="F5" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
       <c r="C6" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
       <c r="D6" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>950</v>
+        <v>969</v>
       </c>
       <c r="B7" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="C7" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="D7" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="C8" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="D8" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="E8" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="F8" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="C9" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="D9" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="E9" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="F9" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -11781,13 +12230,13 @@
         <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="D10" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="E10" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -11795,75 +12244,75 @@
         <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="D11" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="E11" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="F11" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="C12" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="D12" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="E12" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>951</v>
+        <v>970</v>
       </c>
       <c r="B13" t="s">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="C13" t="s">
-        <v>961</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="C14" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="D14" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="E14" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="F14" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="C15" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="D15" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="E15" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
       <c r="F15" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -11873,130 +12322,253 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>987</v>
+      </c>
+      <c r="B3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>987</v>
+      </c>
+      <c r="B4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>990</v>
+      </c>
+      <c r="B7" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>990</v>
+      </c>
+      <c r="B8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>990</v>
+      </c>
+      <c r="B9" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>990</v>
+      </c>
+      <c r="B10" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>991</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>992</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>993</v>
+      </c>
+      <c r="B13" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>993</v>
+      </c>
+      <c r="B14" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>993</v>
+      </c>
+      <c r="B15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>993</v>
+      </c>
+      <c r="B16" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>993</v>
+      </c>
+      <c r="B17" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>994</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>996</v>
+      </c>
+      <c r="B21" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>996</v>
+      </c>
+      <c r="B22" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>997</v>
+      </c>
+      <c r="B23" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>974</v>
+        <v>997</v>
+      </c>
+      <c r="B24" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>997</v>
+      </c>
+      <c r="B25" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>997</v>
+      </c>
+      <c r="B26" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>997</v>
+      </c>
+      <c r="B27" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>999</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -12039,97 +12611,97 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>975</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="C4" t="s">
-        <v>996</v>
+        <v>1027</v>
       </c>
       <c r="D4" t="s">
-        <v>1009</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>977</v>
+        <v>1008</v>
       </c>
       <c r="C5" t="s">
-        <v>997</v>
+        <v>1028</v>
       </c>
       <c r="D5" t="s">
-        <v>1010</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>978</v>
+        <v>1009</v>
       </c>
       <c r="C6" t="s">
-        <v>998</v>
+        <v>1029</v>
       </c>
       <c r="D6" t="s">
-        <v>1011</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>979</v>
+        <v>1010</v>
       </c>
       <c r="C7" t="s">
-        <v>999</v>
+        <v>1030</v>
       </c>
       <c r="D7" t="s">
-        <v>1012</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>980</v>
+        <v>1011</v>
       </c>
       <c r="C8" t="s">
-        <v>1000</v>
+        <v>1031</v>
       </c>
       <c r="D8" t="s">
-        <v>1013</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>981</v>
+        <v>1012</v>
       </c>
       <c r="C9" t="s">
-        <v>1001</v>
+        <v>1032</v>
       </c>
       <c r="D9" t="s">
-        <v>1014</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>982</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>983</v>
+        <v>1014</v>
       </c>
       <c r="C11" t="s">
-        <v>1002</v>
+        <v>1033</v>
       </c>
       <c r="D11" t="s">
-        <v>1015</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>984</v>
+        <v>1015</v>
       </c>
       <c r="D12" t="s">
-        <v>1016</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -12145,99 +12717,99 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>985</v>
+        <v>1016</v>
       </c>
       <c r="C14" t="s">
-        <v>1003</v>
+        <v>1034</v>
       </c>
       <c r="D14" t="s">
-        <v>1017</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>986</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>987</v>
+        <v>1018</v>
       </c>
       <c r="D16" t="s">
-        <v>1018</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>988</v>
+        <v>1019</v>
       </c>
       <c r="C17" t="s">
-        <v>1004</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>989</v>
+        <v>1020</v>
       </c>
       <c r="C18" t="s">
-        <v>1005</v>
+        <v>1036</v>
       </c>
       <c r="D18" t="s">
-        <v>1019</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>990</v>
+        <v>1021</v>
       </c>
       <c r="C19" t="s">
-        <v>1006</v>
+        <v>1037</v>
       </c>
       <c r="D19" t="s">
-        <v>1020</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>991</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>992</v>
+        <v>1023</v>
       </c>
       <c r="C21" t="s">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="D21" t="s">
-        <v>1021</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>993</v>
+        <v>1024</v>
       </c>
       <c r="C22" t="s">
-        <v>1008</v>
+        <v>1039</v>
       </c>
       <c r="D22" t="s">
-        <v>1022</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>994</v>
+        <v>1025</v>
       </c>
       <c r="C23" t="s">
         <v>261</v>
       </c>
       <c r="D23" t="s">
-        <v>1023</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>995</v>
+        <v>1026</v>
       </c>
       <c r="B24" t="s">
         <v>251</v>
@@ -12256,13 +12828,13 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -12293,97 +12865,109 @@
       <c r="J1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="I4" t="s">
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K4" t="s">
         <v>712</v>
       </c>
-      <c r="J4" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:11">
       <c r="F10" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="F11" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10">
+        <v>1061</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="G11" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
       <c r="I17" t="s">
-        <v>1029</v>
+        <v>1058</v>
       </c>
       <c r="J17" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10">
-      <c r="D21" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10">
-      <c r="J22" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10">
-      <c r="J27" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10">
-      <c r="J32" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="J34" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10">
-      <c r="D37" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10">
-      <c r="D39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="G21" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="G27" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="E32" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="E34" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="E37" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="3:10">
-      <c r="D40" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10">
-      <c r="F44" t="s">
+    <row r="44" spans="1:7">
+      <c r="G44" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="3:10">
-      <c r="C45" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10">
-      <c r="F48" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5">
-      <c r="C51" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1026</v>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="G48" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -12426,15 +13010,15 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1032</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1033</v>
+        <v>1066</v>
       </c>
       <c r="B4" t="s">
-        <v>1048</v>
+        <v>1081</v>
       </c>
       <c r="C4" t="s">
         <v>687</v>
@@ -12445,24 +13029,24 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1034</v>
+        <v>1067</v>
       </c>
       <c r="C5" t="s">
-        <v>1051</v>
+        <v>1084</v>
       </c>
       <c r="D5" t="s">
-        <v>1061</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1035</v>
+        <v>1068</v>
       </c>
       <c r="C6" t="s">
-        <v>1052</v>
+        <v>1085</v>
       </c>
       <c r="D6" t="s">
-        <v>1062</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12481,27 +13065,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1036</v>
+        <v>1069</v>
       </c>
       <c r="C8" t="s">
-        <v>1053</v>
+        <v>1086</v>
       </c>
       <c r="D8" t="s">
-        <v>1063</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1037</v>
+        <v>1070</v>
       </c>
       <c r="B9" t="s">
-        <v>1049</v>
+        <v>1082</v>
       </c>
       <c r="C9" t="s">
-        <v>1054</v>
+        <v>1087</v>
       </c>
       <c r="D9" t="s">
-        <v>1064</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -12512,21 +13096,21 @@
         <v>674</v>
       </c>
       <c r="C10" t="s">
-        <v>1055</v>
+        <v>1088</v>
       </c>
       <c r="D10" t="s">
-        <v>1065</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1038</v>
+        <v>1071</v>
       </c>
       <c r="C11" t="s">
-        <v>1056</v>
+        <v>1089</v>
       </c>
       <c r="D11" t="s">
-        <v>1066</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -12545,10 +13129,10 @@
         <v>624</v>
       </c>
       <c r="C13" t="s">
-        <v>1057</v>
+        <v>1090</v>
       </c>
       <c r="D13" t="s">
-        <v>1067</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -12567,18 +13151,18 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1039</v>
+        <v>1072</v>
       </c>
       <c r="C15" t="s">
-        <v>1058</v>
+        <v>1091</v>
       </c>
       <c r="D15" t="s">
-        <v>1068</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1040</v>
+        <v>1073</v>
       </c>
       <c r="C16" t="s">
         <v>586</v>
@@ -12589,16 +13173,16 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>1041</v>
+        <v>1074</v>
       </c>
       <c r="B17" t="s">
-        <v>1050</v>
+        <v>1083</v>
       </c>
       <c r="C17" t="s">
         <v>594</v>
       </c>
       <c r="D17" t="s">
-        <v>1069</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -12619,18 +13203,18 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1042</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1043</v>
+        <v>1076</v>
       </c>
       <c r="C21" t="s">
-        <v>1059</v>
+        <v>1092</v>
       </c>
       <c r="D21" t="s">
-        <v>1070</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -12646,21 +13230,21 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1044</v>
+        <v>1077</v>
       </c>
       <c r="C23" t="s">
-        <v>1060</v>
+        <v>1093</v>
       </c>
       <c r="D23" t="s">
-        <v>1071</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1045</v>
+        <v>1078</v>
       </c>
       <c r="B24" t="s">
-        <v>1050</v>
+        <v>1083</v>
       </c>
       <c r="C24" t="s">
         <v>464</v>
@@ -12671,7 +13255,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>1046</v>
+        <v>1079</v>
       </c>
       <c r="C25" t="s">
         <v>156</v>
@@ -12682,7 +13266,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1047</v>
+        <v>1080</v>
       </c>
       <c r="C26" t="s">
         <v>157</v>
@@ -12781,7 +13365,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1072</v>
+        <v>1105</v>
       </c>
       <c r="B3" t="s">
         <v>251</v>
@@ -12795,38 +13379,38 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1073</v>
+        <v>1106</v>
       </c>
       <c r="B4" t="s">
         <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="D4" t="s">
-        <v>1106</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1074</v>
+        <v>1107</v>
       </c>
       <c r="B5" t="s">
-        <v>1091</v>
+        <v>1124</v>
       </c>
       <c r="C5" t="s">
-        <v>1101</v>
+        <v>1134</v>
       </c>
       <c r="D5" t="s">
-        <v>1107</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1075</v>
+        <v>1108</v>
       </c>
       <c r="B6" t="s">
-        <v>1092</v>
+        <v>1125</v>
       </c>
       <c r="C6" t="s">
         <v>566</v>
@@ -12837,10 +13421,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1076</v>
+        <v>1109</v>
       </c>
       <c r="B7" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
       <c r="C7" t="s">
         <v>353</v>
@@ -12851,18 +13435,18 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1077</v>
+        <v>1110</v>
       </c>
       <c r="C8" t="s">
-        <v>1102</v>
+        <v>1135</v>
       </c>
       <c r="D8" t="s">
-        <v>1108</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1078</v>
+        <v>1111</v>
       </c>
       <c r="C9" t="s">
         <v>158</v>
@@ -12873,24 +13457,24 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1073</v>
+        <v>1106</v>
       </c>
       <c r="B10" t="s">
         <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>1103</v>
+        <v>1136</v>
       </c>
       <c r="D10" t="s">
-        <v>1109</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1075</v>
+        <v>1108</v>
       </c>
       <c r="B11" t="s">
-        <v>1092</v>
+        <v>1125</v>
       </c>
       <c r="C11" t="s">
         <v>263</v>
@@ -12901,10 +13485,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>1079</v>
+        <v>1112</v>
       </c>
       <c r="B12" t="s">
-        <v>1094</v>
+        <v>1127</v>
       </c>
       <c r="C12" t="s">
         <v>572</v>
@@ -12918,21 +13502,21 @@
         <v>426</v>
       </c>
       <c r="B13" t="s">
-        <v>1095</v>
+        <v>1128</v>
       </c>
       <c r="C13" t="s">
         <v>526</v>
       </c>
       <c r="D13" t="s">
-        <v>1110</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>1080</v>
+        <v>1113</v>
       </c>
       <c r="B14" t="s">
-        <v>1096</v>
+        <v>1129</v>
       </c>
       <c r="C14" t="s">
         <v>470</v>
@@ -12946,7 +13530,7 @@
         <v>427</v>
       </c>
       <c r="B15" t="s">
-        <v>1097</v>
+        <v>1130</v>
       </c>
       <c r="C15" t="s">
         <v>502</v>
@@ -12957,13 +13541,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1081</v>
+        <v>1114</v>
       </c>
       <c r="C16" t="s">
-        <v>1104</v>
+        <v>1137</v>
       </c>
       <c r="D16" t="s">
-        <v>1111</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12979,12 +13563,12 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>1082</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1083</v>
+        <v>1116</v>
       </c>
       <c r="B19" t="s">
         <v>254</v>
@@ -12998,7 +13582,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1084</v>
+        <v>1117</v>
       </c>
       <c r="B20" t="s">
         <v>253</v>
@@ -13012,10 +13596,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1085</v>
+        <v>1118</v>
       </c>
       <c r="B21" t="s">
-        <v>1093</v>
+        <v>1126</v>
       </c>
       <c r="C21" t="s">
         <v>356</v>
@@ -13029,18 +13613,18 @@
         <v>429</v>
       </c>
       <c r="B22" t="s">
-        <v>1098</v>
+        <v>1131</v>
       </c>
       <c r="C22" t="s">
         <v>343</v>
       </c>
       <c r="D22" t="s">
-        <v>1112</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>1086</v>
+        <v>1119</v>
       </c>
       <c r="C23" t="s">
         <v>160</v>
@@ -13051,7 +13635,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1083</v>
+        <v>1116</v>
       </c>
       <c r="B24" t="s">
         <v>254</v>
@@ -13059,7 +13643,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>1084</v>
+        <v>1117</v>
       </c>
       <c r="B25" t="s">
         <v>253</v>
@@ -13076,24 +13660,24 @@
         <v>429</v>
       </c>
       <c r="B26" t="s">
-        <v>1098</v>
+        <v>1131</v>
       </c>
       <c r="C26" t="s">
         <v>347</v>
       </c>
       <c r="D26" t="s">
-        <v>1113</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1087</v>
+        <v>1120</v>
       </c>
       <c r="C27" t="s">
-        <v>1105</v>
+        <v>1138</v>
       </c>
       <c r="D27" t="s">
-        <v>1114</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -13109,7 +13693,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>1088</v>
+        <v>1121</v>
       </c>
       <c r="C29" t="s">
         <v>165</v>
@@ -13120,7 +13704,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>1089</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -13128,7 +13712,7 @@
         <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>1099</v>
+        <v>1132</v>
       </c>
       <c r="C31" t="s">
         <v>162</v>
@@ -13161,7 +13745,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1090</v>
+        <v>1123</v>
       </c>
       <c r="C34" t="s">
         <v>165</v>
